--- a/biology/Médecine/Henri_Fucs/Henri_Fucs.xlsx
+++ b/biology/Médecine/Henri_Fucs/Henri_Fucs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henri Fucs (1916-1999) est un médecin d'origine roumaine qui fut, pendant la Seconde Guerre mondiale, un agent secret du Special Operations Executive. Il fit partie du réseau HERMIT de juin à août 1944 dans le Loir-et-Cher et l'Indre-et-Loire.
 </t>
@@ -511,7 +523,9 @@
           <t>Identités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>État civil : Henri Fucs
 Comme agent du SOE, section F :
@@ -545,7 +559,9 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Origine roumaine.
 Frères : trois, Français, réfractaires, engagés dans le maquis de Dordogne, à La Rochelle et dans l'armée Rhin et Danube.
@@ -577,9 +593,11 @@
           <t>Éléments biographiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Henri Fucs naît le 5 avril 1916[1] à Ploiești, en Roumanie. Il vient en France à l'âge de trois ans.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henri Fucs naît le 5 avril 1916 à Ploiești, en Roumanie. Il vient en France à l'âge de trois ans.
 1939. Engagé volontaire, il est incorporé le 20 octobre au 1er RMVE.
 1940. Après la bataille de France, il est prisonnier jusqu'au 1er novembre 1940. Il termine ses études médicales.
 1942. Il passe sa thèse le 1er juillet. En octobre, il passe en zone libre en visant de poursuivre jusqu'en Angleterre. Le 20, il franchit les Pyrénées. En Espagne, il est arrêté : commissariat de police de Figueras,  camp de Miranda de Ebro, carcel Modelo de Barcelonne, retour à Miranda.
@@ -619,7 +637,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Abel chez les médecins, Le Condor, 1979,  (ISBN 2-86229-010-6). Autobiographie
 L’Abcès, Le Condor, 1979.</t>
@@ -650,7 +670,9 @@
           <t>Reconnaissance</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Henri Fucs a reçu les distinctions suivantes :
 Royaume-Uni : Military Cross,
